--- a/src/main/resources/Results.xlsx
+++ b/src/main/resources/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>countries-functionality;create-a-country</t>
   </si>
@@ -40,12 +40,31 @@
   </si>
   <si>
     <t>countries-functionality;delete-a-country</t>
+  </si>
+  <si>
+    <t>contact-functionality;create-a-contact</t>
+  </si>
+  <si>
+    <t>contact-functionality;edit-a-contact</t>
+  </si>
+  <si>
+    <t>contact-functionality;delete-a-contact</t>
+  </si>
+  <si>
+    <t>item-categories;create-and-delete-item-categories;;2</t>
+  </si>
+  <si>
+    <t>item-categories;create-and-delete-item-categories;;3</t>
+  </si>
+  <si>
+    <t>item-categories;create-and-delete-item-categories;;4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,28 +382,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>

--- a/src/main/resources/Results.xlsx
+++ b/src/main/resources/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>countries-functionality;create-a-country</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>item-categories;create-and-delete-item-categories;;4</t>
+  </si>
+  <si>
+    <t>testing-excel-template;excel-template-with-jdbc</t>
+  </si>
+  <si>
+    <t>undefined</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">

--- a/src/main/resources/Results.xlsx
+++ b/src/main/resources/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>countries-functionality;create-a-country</t>
   </si>
@@ -396,7 +396,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">

--- a/src/main/resources/Results.xlsx
+++ b/src/main/resources/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>countries-functionality;create-a-country</t>
   </si>
